--- a/StreamRes/ExcelTable/Excel/PangooEvents.xlsx
+++ b/StreamRes/ExcelTable/Excel/PangooEvents.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>Namesapce</t>
   </si>
@@ -25,6 +28,9 @@
     <t>desc</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
@@ -37,6 +43,9 @@
     <t>描述</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Pangoo</t>
   </si>
   <si>
@@ -46,22 +55,19 @@
     <t>资源组件初始化</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>EventTrigger</t>
   </si>
   <si>
     <t>条件触发事件用来出发外部定义事件</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
 </sst>
 </file>
@@ -1126,7 +1132,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1149,71 +1155,92 @@
       <c r="C1" s="50" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="49" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="D2" s="49" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="50" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="50" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="49" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="50" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" s="50" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="50" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B6" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>14</v>
+      <c r="D6" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="50" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="50" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/StreamRes/ExcelTable/Excel/PangooEvents.xlsx
+++ b/StreamRes/ExcelTable/Excel/PangooEvents.xlsx
@@ -665,7 +665,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="42" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -811,7 +811,6 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" fillId="32" applyFill="1" borderId="0" applyBorder="1" xfId="48" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1139,20 +1138,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="22.6666666666667" customWidth="1" style="50"/>
-    <col min="2" max="2" width="26.5555555555556" customWidth="1" style="50"/>
-    <col min="3" max="3" width="11.2222222222222" customWidth="1" style="50"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="49" t="s">
@@ -1160,13 +1154,13 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="49" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="49" t="s">
@@ -1174,13 +1168,13 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="49" t="s">
@@ -1188,13 +1182,13 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="49" t="s">
@@ -1202,13 +1196,13 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="49" t="s">
@@ -1216,13 +1210,13 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="49" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="49" t="s">
@@ -1230,13 +1224,13 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="49" t="s">

--- a/StreamRes/ExcelTable/Excel/PangooEvents.xlsx
+++ b/StreamRes/ExcelTable/Excel/PangooEvents.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Id</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>Namesapce</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Pangoo</t>
@@ -1131,7 +1137,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -1152,19 +1158,25 @@
       <c r="D1" s="49" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="49" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="49" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="49" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="E2" s="49" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1172,69 +1184,84 @@
         <v>0</v>
       </c>
       <c r="B3" s="49" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="49" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="49" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="49" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="49" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="49" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="49" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="E6" s="49" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="49" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
